--- a/Sprint One/Entity Diagram.xlsx
+++ b/Sprint One/Entity Diagram.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Characters</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>RoomId</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions </t>
+  </si>
+  <si>
+    <t>Weapon ID</t>
+  </si>
+  <si>
+    <t>Weapon.ID</t>
+  </si>
+  <si>
+    <t>Player ID</t>
+  </si>
+  <si>
+    <t>Player.ID</t>
+  </si>
+  <si>
+    <t>-1,0,1</t>
+  </si>
+  <si>
+    <t>Condition.ID</t>
+  </si>
+  <si>
+    <t>Int</t>
   </si>
 </sst>
 </file>
@@ -104,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,18 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,8 +468,12 @@
         <v>8</v>
       </c>
       <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,8 +492,14 @@
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -478,8 +518,14 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -498,12 +544,35 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Sprint One/Entity Diagram.xlsx
+++ b/Sprint One/Entity Diagram.xlsx
@@ -66,13 +66,13 @@
     <t>Player.ID</t>
   </si>
   <si>
-    <t>-1,0,1</t>
-  </si>
-  <si>
     <t>Condition.ID</t>
   </si>
   <si>
     <t>Int</t>
+  </si>
+  <si>
+    <t>no, unknown, maybe, yes</t>
   </si>
 </sst>
 </file>
@@ -134,10 +134,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,22 +456,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -555,16 +555,16 @@
       <c r="J5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
